--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flux Solar Energías Renovables SpA</t>
+          <t>Tedlar Diemos SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
+          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>26/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/08/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Loncura</t>
+          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tedlar Diemos SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8140</v>
+        <v>30000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>25/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Colmo</t>
+          <t>Parque Fotovoltaico Loncura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Tedlar Diemos SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>8140</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centro de eventos Les Bourgeois</t>
+          <t>Parque Fotovoltaico Colmo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rubén Sergio Bourgeois Navia</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Solar El Peumo</t>
+          <t>Centro de eventos Les Bourgeois</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Rubén Sergio Bourgeois Navia</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>23/02/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví 110 kV</t>
+          <t>Planta Solar El Peumo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>23/10/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Aconcagua</t>
+          <t>Subestación Puchuncaví 110 kV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>157</v>
+        <v>8000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
+          <t>Extracción de Áridos Rio Aconcagua</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
+          <t>Sociedad Pétreos</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>670</v>
+        <v>157</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/05/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización y Recuperación de Suelo Parcela 13</t>
+          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/05/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>?Extracción de Áridos Rio Aconcagua?,</t>
+          <t>Regularización y Recuperación de Suelo Parcela 13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/07/2018</t>
+          <t>15/05/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oleoducto de Conexión ENEX-SONACOL</t>
+          <t>?Extracción de Áridos Rio Aconcagua?,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2900</v>
+        <v>157</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>09/07/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Actualización del Complejo Industrial Coker"</t>
+          <t>Oleoducto de Conexión ENEX-SONACOL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>78000</v>
+        <v>2900</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Aconcagua</t>
+          <t>"Actualización del Complejo Industrial Coker"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>162000</v>
+        <v>78000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/04/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,40 +1096,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Aconcagua</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>162000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>27/04/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50000</v>
+        <v>37</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>28/09/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atacama SpA</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>60</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>17/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/06/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Central Nueva ERA</t>
+          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Atacama SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>680000</v>
+        <v>60</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>23/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EIA HOTEL DECAMERON RITOQUE</t>
+          <t>Central Nueva ERA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Constructora Riviera Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>44500</v>
+        <v>680000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/06/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
+          <t>EIA HOTEL DECAMERON RITOQUE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Constructora Riviera Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>300000</v>
+        <v>44500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>30/06/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/02/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>16/02/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
+          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>670</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
+          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Recuperación de Terrenos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asfaltos Chilenos S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>390</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
+          <t>Recuperación de Terrenos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>Asfaltos Chilenos S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>126166</v>
+        <v>390</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,40 +2344,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>126166</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,26 +2584,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6.8</v>
+        <v>5500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,40 +2632,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26/09/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Proyecto TK-5</t>
+          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/09/2012</t>
+          <t>26/09/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Terminal Proyecto TK-5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>11/09/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
+          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5500</v>
+        <v>60000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>07/12/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Foresta Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6069</v>
+        <v>150</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Inmobiliaria La Foresta Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>75000</v>
+        <v>6069</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/12/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/09/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>17700</v>
+        <v>170</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>29/09/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>264</v>
+        <v>4800</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de barros de limpieza de refinería</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de barros de limpieza de refinería</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>21/07/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5705</v>
+        <v>4050</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>5705</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,30 +4504,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inversiones San José S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>330000</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Inversiones San José S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6188</v>
+        <v>330000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05/02/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>6188</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>05/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>07/12/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ENERGY PHOENIX LANDFILL S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1163</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>04/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
+          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ENERGY PHOENIX LANDFILL S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>17000</v>
+        <v>1163</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>04/09/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>17000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>BASF Chile S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5491</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
+          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Inversiones Bosques del Mauco S.A.</t>
+          <t>BASF Chile S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>35</v>
+        <v>5491</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Inversiones Bosques del Mauco S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4700</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>4700</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3700</v>
+        <v>1750</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,36 +6376,40 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Energía Minera</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Energía Minera S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.7</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,40 +6424,36 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Termoeléctrica Energía Minera</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía Minera S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>1.7</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>06/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,25 +6483,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>80</v>
+        <v>1750</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,16 +6622,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>INVERSIONES MONTECARLO S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
+          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>INVERSIONES MONTECARLO S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10600</v>
+        <v>5600</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,20 +6718,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>10600</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,20 +6814,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1300</v>
+        <v>429</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,20 +6910,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1300</v>
+        <v>234</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,20 +6958,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,40 +6996,40 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Quintero</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>110000</v>
+        <v>10</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,12 +7044,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
+          <t>Central Termoeléctrica Quintero</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7059,15 +7059,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>8500</v>
+        <v>110000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,30 +7102,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>8500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,30 +7150,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>6600</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7211,17 +7211,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,25 +7251,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>400000</v>
+        <v>6600</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,20 +7294,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,30 +7342,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>400000</v>
+        <v>1</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,20 +7390,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>210</v>
+        <v>400000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,17 +7547,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,25 +7587,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7643,17 +7643,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7678,20 +7678,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7726,30 +7726,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7822,20 +7822,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
+          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>JAIME VILLAGRAN VILLEGAS</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,20 +7918,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>JAIME VILLAGRAN VILLEGAS</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>06/10/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8027,17 +8027,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,17 +8123,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,25 +8163,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,30 +8254,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,25 +8307,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,20 +8350,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>15/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos (e-seia)</t>
+          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,17 +8411,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>15/02/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Acopio combustibles sólidos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,30 +8446,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Gasoducto Quintero - Quillota (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,20 +8494,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ELECTROGAS S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>19340</v>
+        <v>72</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Gasoducto Quintero - Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,15 +8547,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>ELECTROGAS S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>430</v>
+        <v>19340</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,30 +8590,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,30 +8686,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,25 +8787,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>3600</v>
+        <v>430</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3517</v>
+        <v>3600</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,11 +9027,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
+          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,12 +9156,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
+          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Gonzalo Gazmuri Muñoz</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Terminal de Productos Importados (e-seia)</t>
+          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Carlos Lonza Lazo</t>
+          <t>Gonzalo Gazmuri Muñoz</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>15000</v>
+        <v>446</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,12 +9252,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
+          <t>Terminal de Productos Importados (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Carlos Lonza Lazo</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>262294</v>
+        <v>15000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,12 +9300,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
+          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>11200</v>
+        <v>262294</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>11200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9467,17 +9467,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>4500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9646,20 +9646,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>13/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>13/10/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
+          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,17 +9851,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9886,30 +9886,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>16</v>
+        <v>1800</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,30 +10068,30 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Campo Deportivo Mantagua</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Fundación - Corporación "The Mackay School"</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>22/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
+          <t>Campo Deportivo Mantagua</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Fundación - Corporación "The Mackay School"</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>3742</v>
+        <v>121</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>23/05/2003</t>
+          <t>22/07/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,12 +10164,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>10000</v>
+        <v>3742</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>25/03/2003</t>
+          <t>23/05/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
+          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>18/03/2003</t>
+          <t>25/03/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,20 +10270,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>18/03/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,30 +10366,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Inmobiliaria Hesklin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>24/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
+          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1189</v>
+        <v>14</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>24/10/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Terminal Marítimo de Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,20 +10606,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
+          <t>Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Basf Planta Concón</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>230</v>
+        <v>1900</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
+          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Basf Planta Concón</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>7080</v>
+        <v>230</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
+          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>400</v>
+        <v>7080</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>14/08/2000</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,30 +10788,30 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>14/08/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,30 +10836,30 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>5050</v>
+        <v>3500</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
+          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Pesquera Quintero S.A.</t>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>120</v>
+        <v>5050</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,20 +10942,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Pesquera Quintero S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10990,20 +10990,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>04/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
+          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>26/05/1998</t>
+          <t>04/12/1998</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Loteo Santa Rosa de Colmo</t>
+          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria ERRVE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>15/05/1998</t>
+          <t>26/05/1998</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Red de Ductos Quintero Concón</t>
+          <t>Loteo Santa Rosa de Colmo</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sonacol S.A.</t>
+          <t>Inmobiliaria ERRVE S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>12800</v>
+        <v>1570</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>22/04/1998</t>
+          <t>15/05/1998</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,12 +11172,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
+          <t>Red de Ductos Quintero Concón</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Sonacol S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1500</v>
+        <v>12800</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>26/12/1997</t>
+          <t>22/04/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>21730</v>
+        <v>1500</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>08/10/1997</t>
+          <t>26/12/1997</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,43 +11268,91 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Mantagua Resort</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>21730</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>08/10/1997</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F228" t="n">
+      <c r="F229" t="n">
         <v>850000</v>
       </c>
-      <c r="G228" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr">
+      <c r="I229" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr">
+      <c r="J229" t="inlineStr">
         <is>
           <t>Quintero</t>
         </is>

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/09/2022</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
+          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45000</v>
+        <v>670</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
+          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/08/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Loncura</t>
+          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tedlar Diemos SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8140</v>
+        <v>30000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>25/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Colmo</t>
+          <t>Parque Fotovoltaico Loncura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Tedlar Diemos SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>8140</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Centro de eventos Les Bourgeois</t>
+          <t>Parque Fotovoltaico Colmo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rubén Sergio Bourgeois Navia</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Solar El Peumo</t>
+          <t>Centro de eventos Les Bourgeois</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Rubén Sergio Bourgeois Navia</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>23/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví 110 kV</t>
+          <t>Planta Solar El Peumo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>23/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Aconcagua</t>
+          <t>Subestación Puchuncaví 110 kV</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>157</v>
+        <v>8000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
+          <t>Extracción de Áridos Rio Aconcagua</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
+          <t>Sociedad Pétreos</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>670</v>
+        <v>157</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/05/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regularización y Recuperación de Suelo Parcela 13</t>
+          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/05/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>?Extracción de Áridos Rio Aconcagua?,</t>
+          <t>Regularización y Recuperación de Suelo Parcela 13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09/07/2018</t>
+          <t>15/05/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Oleoducto de Conexión ENEX-SONACOL</t>
+          <t>?Extracción de Áridos Rio Aconcagua?,</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2900</v>
+        <v>157</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>09/07/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"Actualización del Complejo Industrial Coker"</t>
+          <t>Oleoducto de Conexión ENEX-SONACOL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>78000</v>
+        <v>2900</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Aconcagua</t>
+          <t>"Actualización del Complejo Industrial Coker"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>162000</v>
+        <v>78000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/04/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,40 +1144,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Aconcagua</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>162000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>27/04/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50000</v>
+        <v>37</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>28/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>28/09/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Atacama SpA</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>50000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>17/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/06/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Central Nueva ERA</t>
+          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Atacama SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>680000</v>
+        <v>60</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>23/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EIA HOTEL DECAMERON RITOQUE</t>
+          <t>Central Nueva ERA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Constructora Riviera Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>44500</v>
+        <v>680000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/06/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
+          <t>EIA HOTEL DECAMERON RITOQUE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Constructora Riviera Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>300000</v>
+        <v>44500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>30/06/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/02/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>16/02/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
+          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2000</v>
+        <v>670</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
+          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Recuperación de Terrenos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asfaltos Chilenos S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>390</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
+          <t>Recuperación de Terrenos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>Asfaltos Chilenos S.A</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>126166</v>
+        <v>390</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,40 +2392,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>126166</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,26 +2632,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6.8</v>
+        <v>5500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,40 +2680,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26/09/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Proyecto TK-5</t>
+          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/09/2012</t>
+          <t>26/09/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Terminal Proyecto TK-5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>11/09/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
+          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5500</v>
+        <v>60000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>07/12/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Foresta Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6069</v>
+        <v>150</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Inmobiliaria La Foresta Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>75000</v>
+        <v>6069</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/12/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/09/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>17700</v>
+        <v>170</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>29/09/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>264</v>
+        <v>4800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de barros de limpieza de refinería</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de barros de limpieza de refinería</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>21/07/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5705</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>5705</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,30 +4552,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inversiones San José S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>330000</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Inversiones San José S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>6188</v>
+        <v>330000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05/02/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>6188</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>05/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,12 +4946,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>07/12/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ENERGY PHOENIX LANDFILL S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1163</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>04/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
+          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ENERGY PHOENIX LANDFILL S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>17000</v>
+        <v>1163</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>04/09/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22</v>
+        <v>17000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BASF Chile S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5491</v>
+        <v>22</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
+          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inversiones Bosques del Mauco S.A.</t>
+          <t>BASF Chile S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>35</v>
+        <v>5491</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Inversiones Bosques del Mauco S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4700</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>4700</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3700</v>
+        <v>1750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,36 +6424,40 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Energía Minera</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Energía Minera S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.7</v>
+        <v>500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>06/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,40 +6472,36 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Termoeléctrica Energía Minera</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía Minera S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>1.7</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>06/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>80</v>
+        <v>1750</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,16 +6670,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>INVERSIONES MONTECARLO S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
+          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>INVERSIONES MONTECARLO S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>10600</v>
+        <v>5600</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,20 +6766,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>10600</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,20 +6862,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1300</v>
+        <v>429</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,30 +6910,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,20 +6958,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1300</v>
+        <v>234</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,20 +7006,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,40 +7044,40 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Quintero</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>110000</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,12 +7092,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
+          <t>Central Termoeléctrica Quintero</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7107,15 +7107,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>8500</v>
+        <v>110000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,30 +7150,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>8500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,30 +7198,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6600</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,25 +7299,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>400000</v>
+        <v>6600</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,20 +7342,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,30 +7390,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>400000</v>
+        <v>1</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7438,20 +7438,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>210</v>
+        <v>400000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,15 +7491,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,17 +7595,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,25 +7635,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7691,17 +7691,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7726,20 +7726,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7774,30 +7774,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,17 +7835,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7870,20 +7870,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
+          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,15 +7923,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>JAIME VILLAGRAN VILLEGAS</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,20 +7966,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>JAIME VILLAGRAN VILLEGAS</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>06/10/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8075,17 +8075,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,25 +8115,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,17 +8171,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,25 +8211,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,30 +8254,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,30 +8302,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,25 +8355,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,20 +8398,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>15/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos (e-seia)</t>
+          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,17 +8459,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>15/02/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Acopio combustibles sólidos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,30 +8494,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Gasoducto Quintero - Quillota (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ELECTROGAS S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>19340</v>
+        <v>72</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Gasoducto Quintero - Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,15 +8595,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>ELECTROGAS S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>430</v>
+        <v>19340</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,30 +8638,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,30 +8734,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,25 +8835,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3600</v>
+        <v>430</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3517</v>
+        <v>3600</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,15 +9027,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,11 +9075,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,20 +9118,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,12 +9156,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
+          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,12 +9204,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
+          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Gonzalo Gazmuri Muñoz</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Terminal de Productos Importados (e-seia)</t>
+          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Carlos Lonza Lazo</t>
+          <t>Gonzalo Gazmuri Muñoz</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>15000</v>
+        <v>446</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,12 +9300,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
+          <t>Terminal de Productos Importados (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Carlos Lonza Lazo</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>262294</v>
+        <v>15000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
+          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>11200</v>
+        <v>262294</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>11200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9515,17 +9515,17 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>4500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9694,20 +9694,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>13/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>13/10/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
+          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,11 +9795,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,17 +9899,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>16</v>
+        <v>1800</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,30 +10078,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,30 +10116,30 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Campo Deportivo Mantagua</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Fundación - Corporación "The Mackay School"</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>22/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
+          <t>Campo Deportivo Mantagua</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Fundación - Corporación "The Mackay School"</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>3742</v>
+        <v>121</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>23/05/2003</t>
+          <t>22/07/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,12 +10212,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>10000</v>
+        <v>3742</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>25/03/2003</t>
+          <t>23/05/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
+          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>18/03/2003</t>
+          <t>25/03/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>18/03/2003</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,30 +10414,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Inmobiliaria Hesklin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>24/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
+          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,25 +10467,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1189</v>
+        <v>14</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>24/10/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,20 +10606,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Terminal Marítimo de Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10654,20 +10654,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
+          <t>Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Basf Planta Concón</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>230</v>
+        <v>1900</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
+          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Basf Planta Concón</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>7080</v>
+        <v>230</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
+          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>400</v>
+        <v>7080</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>14/08/2000</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,30 +10836,30 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>14/08/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,30 +10884,30 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>5050</v>
+        <v>3500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
+          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Pesquera Quintero S.A.</t>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>120</v>
+        <v>5050</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10990,20 +10990,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Pesquera Quintero S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11038,20 +11038,20 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>04/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
+          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>26/05/1998</t>
+          <t>04/12/1998</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Loteo Santa Rosa de Colmo</t>
+          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Inmobiliaria ERRVE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>15/05/1998</t>
+          <t>26/05/1998</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,12 +11172,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Red de Ductos Quintero Concón</t>
+          <t>Loteo Santa Rosa de Colmo</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sonacol S.A.</t>
+          <t>Inmobiliaria ERRVE S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12800</v>
+        <v>1570</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>22/04/1998</t>
+          <t>15/05/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,12 +11220,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
+          <t>Red de Ductos Quintero Concón</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Sonacol S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1500</v>
+        <v>12800</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>26/12/1997</t>
+          <t>22/04/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>21730</v>
+        <v>1500</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>08/10/1997</t>
+          <t>26/12/1997</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,43 +11316,91 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Mantagua Resort</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>21730</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>08/10/1997</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F229" t="n">
+      <c r="F230" t="n">
         <v>850000</v>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr">
+      <c r="I230" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr">
+      <c r="J230" t="inlineStr">
         <is>
           <t>Quintero</t>
         </is>

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>07/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/12/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>Subestación Puchuncaví S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>Ahorros Inversiones y Rentas S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>05/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
+          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>45000</v>
+        <v>670</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
+          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/08/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Loncura</t>
+          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tedlar Diemos SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8140</v>
+        <v>30000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>25/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Colmo</t>
+          <t>Parque Fotovoltaico Loncura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Tedlar Diemos SpA.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>8140</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Centro de eventos Les Bourgeois</t>
+          <t>Parque Fotovoltaico Colmo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rubén Sergio Bourgeois Navia</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Solar El Peumo</t>
+          <t>Centro de eventos Les Bourgeois</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Rubén Sergio Bourgeois Navia</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>23/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví 110 kV</t>
+          <t>Planta Solar El Peumo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví S.A.</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>23/10/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Aconcagua</t>
+          <t>Subestación Puchuncaví 110 kV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos</t>
+          <t>Subestación Puchuncaví S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>157</v>
+        <v>8000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
+          <t>Extracción de Áridos Rio Aconcagua</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
+          <t>Sociedad Pétreos</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>670</v>
+        <v>157</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/05/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Regularización y Recuperación de Suelo Parcela 13</t>
+          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/05/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>?Extracción de Áridos Rio Aconcagua?,</t>
+          <t>Regularización y Recuperación de Suelo Parcela 13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09/07/2018</t>
+          <t>15/05/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Oleoducto de Conexión ENEX-SONACOL</t>
+          <t>?Extracción de Áridos Rio Aconcagua?,</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2900</v>
+        <v>157</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>09/07/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Actualización del Complejo Industrial Coker"</t>
+          <t>Oleoducto de Conexión ENEX-SONACOL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>78000</v>
+        <v>2900</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto Aconcagua</t>
+          <t>"Actualización del Complejo Industrial Coker"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>162000</v>
+        <v>78000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/04/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,40 +1192,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Aconcagua</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>162000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>27/04/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>37</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>28/09/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Atacama SpA</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>50000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>17/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/06/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Central Nueva ERA</t>
+          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Atacama SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>680000</v>
+        <v>60</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>23/06/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EIA HOTEL DECAMERON RITOQUE</t>
+          <t>Central Nueva ERA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Constructora Riviera Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>44500</v>
+        <v>680000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/06/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
+          <t>EIA HOTEL DECAMERON RITOQUE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Constructora Riviera Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>300000</v>
+        <v>44500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>30/06/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/02/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>16/02/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
+          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>670</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
+          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Recuperación de Terrenos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asfaltos Chilenos S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>390</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
+          <t>Recuperación de Terrenos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>Asfaltos Chilenos S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>126166</v>
+        <v>390</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,40 +2440,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>126166</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,26 +2680,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6.8</v>
+        <v>5500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,40 +2728,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26/09/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Proyecto TK-5</t>
+          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/09/2012</t>
+          <t>26/09/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Terminal Proyecto TK-5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>11/09/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
+          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5500</v>
+        <v>60000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>07/12/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Foresta Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>6069</v>
+        <v>150</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Inmobiliaria La Foresta Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>75000</v>
+        <v>6069</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/12/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/09/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>17700</v>
+        <v>170</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>29/09/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>264</v>
+        <v>4800</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de barros de limpieza de refinería</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de barros de limpieza de refinería</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>21/07/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5705</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,30 +4600,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Inversiones San José S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>330000</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Inversiones San José S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>6188</v>
+        <v>330000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05/02/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>6188</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>05/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,12 +4994,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>07/12/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ENERGY PHOENIX LANDFILL S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1163</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>04/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
+          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ENERGY PHOENIX LANDFILL S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>17000</v>
+        <v>1163</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>04/09/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>22</v>
+        <v>17000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BASF Chile S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5491</v>
+        <v>22</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
+          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Inversiones Bosques del Mauco S.A.</t>
+          <t>BASF Chile S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>35</v>
+        <v>5491</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Inversiones Bosques del Mauco S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4700</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>4700</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3700</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,36 +6472,40 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Energía Minera</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Energía Minera S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.7</v>
+        <v>500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,40 +6520,36 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Termoeléctrica Energía Minera</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía Minera S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>1.7</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>06/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>80</v>
+        <v>1750</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,16 +6718,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>INVERSIONES MONTECARLO S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
+          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>INVERSIONES MONTECARLO S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10600</v>
+        <v>5600</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,20 +6814,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>10600</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,20 +6910,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1300</v>
+        <v>429</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,30 +6958,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,20 +7006,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1300</v>
+        <v>234</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,20 +7054,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,40 +7092,40 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Quintero</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>110000</v>
+        <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,12 +7140,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
+          <t>Central Termoeléctrica Quintero</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -7155,15 +7155,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>8500</v>
+        <v>110000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,30 +7198,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>8500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,30 +7246,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6600</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7307,17 +7307,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,25 +7347,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>400000</v>
+        <v>6600</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,20 +7390,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7438,30 +7438,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>400000</v>
+        <v>1</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,20 +7486,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>210</v>
+        <v>400000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,15 +7539,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,25 +7587,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,17 +7643,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,25 +7683,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7739,17 +7739,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7774,20 +7774,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7822,30 +7822,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,17 +7883,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,20 +7918,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
+          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,15 +7971,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>JAIME VILLAGRAN VILLEGAS</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,20 +8014,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>JAIME VILLAGRAN VILLEGAS</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>06/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8123,17 +8123,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,25 +8163,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,17 +8219,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,25 +8259,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,30 +8302,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,30 +8350,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,25 +8403,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,20 +8446,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>15/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos (e-seia)</t>
+          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>15/02/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Acopio combustibles sólidos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,30 +8542,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Gasoducto Quintero - Quillota (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ELECTROGAS S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>19340</v>
+        <v>72</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Gasoducto Quintero - Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>ELECTROGAS S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>430</v>
+        <v>19340</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,30 +8686,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,25 +8787,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3600</v>
+        <v>430</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,20 +8926,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3517</v>
+        <v>3600</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,15 +9027,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,15 +9075,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,11 +9123,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,12 +9204,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
+          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,12 +9252,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
+          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Gonzalo Gazmuri Muñoz</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Terminal de Productos Importados (e-seia)</t>
+          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Carlos Lonza Lazo</t>
+          <t>Gonzalo Gazmuri Muñoz</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>15000</v>
+        <v>446</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
+          <t>Terminal de Productos Importados (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Carlos Lonza Lazo</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>262294</v>
+        <v>15000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,12 +9396,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
+          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>11200</v>
+        <v>262294</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>11200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9563,17 +9563,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>4500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9742,20 +9742,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>13/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>13/10/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
+          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,11 +9843,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,17 +9947,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>16</v>
+        <v>1800</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,25 +10035,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,30 +10078,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,30 +10126,30 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,30 +10164,30 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Campo Deportivo Mantagua</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Fundación - Corporación "The Mackay School"</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>22/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
+          <t>Campo Deportivo Mantagua</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Fundación - Corporación "The Mackay School"</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>3742</v>
+        <v>121</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>23/05/2003</t>
+          <t>22/07/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,12 +10260,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>10000</v>
+        <v>3742</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>25/03/2003</t>
+          <t>23/05/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
+          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>18/03/2003</t>
+          <t>25/03/2003</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,20 +10366,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>18/03/2003</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,30 +10462,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Inmobiliaria Hesklin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>24/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
+          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,25 +10515,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1189</v>
+        <v>14</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>24/10/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,20 +10606,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10654,20 +10654,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Terminal Marítimo de Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10702,20 +10702,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
+          <t>Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Basf Planta Concón</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>230</v>
+        <v>1900</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
+          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Basf Planta Concón</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>7080</v>
+        <v>230</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
+          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>400</v>
+        <v>7080</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>14/08/2000</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,30 +10884,30 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>14/08/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,30 +10932,30 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>5050</v>
+        <v>3500</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
+          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Pesquera Quintero S.A.</t>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>120</v>
+        <v>5050</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11038,20 +11038,20 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Pesquera Quintero S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11086,20 +11086,20 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>04/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
+          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>26/05/1998</t>
+          <t>04/12/1998</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Loteo Santa Rosa de Colmo</t>
+          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Inmobiliaria ERRVE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>15/05/1998</t>
+          <t>26/05/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,12 +11220,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Red de Ductos Quintero Concón</t>
+          <t>Loteo Santa Rosa de Colmo</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sonacol S.A.</t>
+          <t>Inmobiliaria ERRVE S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>12800</v>
+        <v>1570</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>22/04/1998</t>
+          <t>15/05/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
+          <t>Red de Ductos Quintero Concón</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Sonacol S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1500</v>
+        <v>12800</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>26/12/1997</t>
+          <t>22/04/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>21730</v>
+        <v>1500</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>08/10/1997</t>
+          <t>26/12/1997</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,43 +11364,91 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Mantagua Resort</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>21730</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>08/10/1997</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F230" t="n">
+      <c r="F231" t="n">
         <v>850000</v>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
+      <c r="I231" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr">
+      <c r="J231" t="inlineStr">
         <is>
           <t>Quintero</t>
         </is>

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/01/2023</t>
+          <t>12/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sonacol S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A...</t>
         </is>
       </c>
       <c r="F228" t="n">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F190" t="n">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Hidrógeno Verde Bahía de Quintero</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>670</v>
+        <v>30000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/01/2023</t>
+          <t>11/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159899187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>Ahorros Inversiones y Rentas S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>12/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
+          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>45000</v>
+        <v>670</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
+          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/08/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Loncura</t>
+          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tedlar Diemos SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8140</v>
+        <v>30000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>25/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Colmo</t>
+          <t>Parque Fotovoltaico Loncura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Tedlar Diemos SpA.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>8140</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Centro de eventos Les Bourgeois</t>
+          <t>Parque Fotovoltaico Colmo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rubén Sergio Bourgeois Navia</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Solar El Peumo</t>
+          <t>Centro de eventos Les Bourgeois</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Rubén Sergio Bourgeois Navia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>23/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví 110 kV</t>
+          <t>Planta Solar El Peumo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví S.A.</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>23/10/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Aconcagua</t>
+          <t>Subestación Puchuncaví 110 kV</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos</t>
+          <t>Subestación Puchuncaví S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>157</v>
+        <v>8000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
+          <t>Extracción de Áridos Rio Aconcagua</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
+          <t>Sociedad Pétreos</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>670</v>
+        <v>157</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/05/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Regularización y Recuperación de Suelo Parcela 13</t>
+          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/05/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>?Extracción de Áridos Rio Aconcagua?,</t>
+          <t>Regularización y Recuperación de Suelo Parcela 13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/07/2018</t>
+          <t>15/05/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oleoducto de Conexión ENEX-SONACOL</t>
+          <t>?Extracción de Áridos Rio Aconcagua?,</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2900</v>
+        <v>157</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>09/07/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Actualización del Complejo Industrial Coker"</t>
+          <t>Oleoducto de Conexión ENEX-SONACOL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>78000</v>
+        <v>2900</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Aconcagua</t>
+          <t>"Actualización del Complejo Industrial Coker"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>162000</v>
+        <v>78000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/04/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,40 +1240,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Aconcagua</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>162000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>27/04/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50000</v>
+        <v>37</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>28/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>28/09/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Atacama SpA</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>50000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>17/08/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/06/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Central Nueva ERA</t>
+          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Atacama SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>680000</v>
+        <v>60</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>23/06/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EIA HOTEL DECAMERON RITOQUE</t>
+          <t>Central Nueva ERA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Constructora Riviera Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>44500</v>
+        <v>680000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/06/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
+          <t>EIA HOTEL DECAMERON RITOQUE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Constructora Riviera Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300000</v>
+        <v>44500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>30/06/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/02/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>16/02/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
+          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>670</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
+          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Recuperación de Terrenos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asfaltos Chilenos S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>390</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
+          <t>Recuperación de Terrenos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>Asfaltos Chilenos S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>126166</v>
+        <v>390</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,40 +2488,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>126166</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,26 +2728,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6.8</v>
+        <v>5500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,40 +2776,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26/09/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Proyecto TK-5</t>
+          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/09/2012</t>
+          <t>26/09/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Terminal Proyecto TK-5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>11/09/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
+          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5500</v>
+        <v>60000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>07/12/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Foresta Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6069</v>
+        <v>150</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Inmobiliaria La Foresta Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>75000</v>
+        <v>6069</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/12/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/09/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17700</v>
+        <v>170</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>29/09/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>264</v>
+        <v>4800</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de barros de limpieza de refinería</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de barros de limpieza de refinería</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>21/07/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5705</v>
+        <v>4050</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,30 +4648,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inversiones San José S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>330000</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Inversiones San José S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6188</v>
+        <v>330000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>05/02/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>6188</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>05/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,12 +5042,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>07/12/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ENERGY PHOENIX LANDFILL S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1163</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
+          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ENERGY PHOENIX LANDFILL S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>17000</v>
+        <v>1163</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>04/09/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>22</v>
+        <v>17000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BASF Chile S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5491</v>
+        <v>22</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
+          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inversiones Bosques del Mauco S.A.</t>
+          <t>BASF Chile S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>35</v>
+        <v>5491</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Inversiones Bosques del Mauco S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4700</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>4700</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3700</v>
+        <v>1750</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,36 +6520,40 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Energía Minera</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Energía Minera S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.7</v>
+        <v>500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,40 +6568,36 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Termoeléctrica Energía Minera</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía Minera S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>1.7</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>06/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>80</v>
+        <v>1750</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,16 +6766,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>INVERSIONES MONTECARLO S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
+          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>INVERSIONES MONTECARLO S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10600</v>
+        <v>5600</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,20 +6862,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>30</v>
+        <v>10600</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,20 +6958,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1300</v>
+        <v>429</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,30 +7006,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,20 +7054,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1300</v>
+        <v>234</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,20 +7102,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,40 +7140,40 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Quintero</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>110000</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
+          <t>Central Termoeléctrica Quintero</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>8500</v>
+        <v>110000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,30 +7246,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>8500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,30 +7294,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6600</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7355,17 +7355,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,25 +7395,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>400000</v>
+        <v>6600</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7438,20 +7438,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,30 +7486,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>400000</v>
+        <v>1</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,20 +7534,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>210</v>
+        <v>400000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,15 +7587,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,25 +7635,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,17 +7691,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7822,20 +7822,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7870,30 +7870,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,17 +7931,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,20 +7966,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
+          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,15 +8019,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>JAIME VILLAGRAN VILLEGAS</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,20 +8062,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>JAIME VILLAGRAN VILLEGAS</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>06/10/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,25 +8115,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8171,17 +8171,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,25 +8211,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,17 +8267,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,25 +8307,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,30 +8350,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,30 +8398,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,25 +8451,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,20 +8494,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>15/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos (e-seia)</t>
+          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,17 +8555,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>15/02/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Acopio combustibles sólidos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,30 +8590,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Gasoducto Quintero - Quillota (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ELECTROGAS S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>19340</v>
+        <v>72</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Gasoducto Quintero - Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,15 +8691,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>ELECTROGAS S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>430</v>
+        <v>19340</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,30 +8734,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,25 +8835,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3600</v>
+        <v>430</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3517</v>
+        <v>3600</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,15 +9027,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,15 +9075,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,11 +9171,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,12 +9252,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
+          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,12 +9300,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
+          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Gonzalo Gazmuri Muñoz</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Terminal de Productos Importados (e-seia)</t>
+          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Carlos Lonza Lazo</t>
+          <t>Gonzalo Gazmuri Muñoz</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>15000</v>
+        <v>446</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,12 +9396,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
+          <t>Terminal de Productos Importados (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Carlos Lonza Lazo</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>262294</v>
+        <v>15000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,12 +9444,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
+          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>11200</v>
+        <v>262294</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,20 +9502,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>11200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9611,17 +9611,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>4500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9790,20 +9790,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>13/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>13/10/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
+          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,15 +9939,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,17 +9995,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>16</v>
+        <v>1800</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,30 +10126,30 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,30 +10174,30 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,30 +10212,30 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Campo Deportivo Mantagua</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Fundación - Corporación "The Mackay School"</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>22/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
+          <t>Campo Deportivo Mantagua</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Fundación - Corporación "The Mackay School"</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3742</v>
+        <v>121</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>23/05/2003</t>
+          <t>22/07/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,12 +10308,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>10000</v>
+        <v>3742</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>25/03/2003</t>
+          <t>23/05/2003</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
+          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>18/03/2003</t>
+          <t>25/03/2003</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,20 +10414,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>18/03/2003</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,30 +10510,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Inmobiliaria Hesklin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>24/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
+          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,25 +10563,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1189</v>
+        <v>14</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>24/10/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,20 +10606,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10654,20 +10654,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10702,20 +10702,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Terminal Marítimo de Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10750,20 +10750,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
+          <t>Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Basf Planta Concón</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>230</v>
+        <v>1900</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
+          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Basf Planta Concón</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>7080</v>
+        <v>230</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
+          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>400</v>
+        <v>7080</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>14/08/2000</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,30 +10932,30 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>14/08/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,30 +10980,30 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5050</v>
+        <v>3500</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
+          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Pesquera Quintero S.A.</t>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>120</v>
+        <v>5050</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11086,20 +11086,20 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Pesquera Quintero S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11134,20 +11134,20 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>04/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
+          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>26/05/1998</t>
+          <t>04/12/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Loteo Santa Rosa de Colmo</t>
+          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Inmobiliaria ERRVE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>15/05/1998</t>
+          <t>26/05/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Red de Ductos Quintero Concón</t>
+          <t>Loteo Santa Rosa de Colmo</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A...</t>
+          <t>Inmobiliaria ERRVE S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>12800</v>
+        <v>1570</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>22/04/1998</t>
+          <t>15/05/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
+          <t>Red de Ductos Quintero Concón</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Sociedad Nacional de Oleoductos S.A...</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1500</v>
+        <v>12800</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>26/12/1997</t>
+          <t>22/04/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>21730</v>
+        <v>1500</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>08/10/1997</t>
+          <t>26/12/1997</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,43 +11412,91 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Mantagua Resort</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>21730</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>08/10/1997</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F231" t="n">
+      <c r="F232" t="n">
         <v>850000</v>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr">
+      <c r="I232" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr">
+      <c r="J232" t="inlineStr">
         <is>
           <t>Quintero</t>
         </is>

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/09/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hidrógeno Verde Bahía de Quintero</t>
+          <t>Parque Fotovoltaico Ritoque Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,11 +439,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159899187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160052668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Hidrógeno Verde Bahía de Quintero</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>670</v>
+        <v>30000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/01/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159899187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>Ahorros Inversiones y Rentas S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>12/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
+          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>45000</v>
+        <v>670</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
+          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/08/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Loncura</t>
+          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tedlar Diemos SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8140</v>
+        <v>30000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>25/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Colmo</t>
+          <t>Parque Fotovoltaico Loncura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Tedlar Diemos SpA.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>8140</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Centro de eventos Les Bourgeois</t>
+          <t>Parque Fotovoltaico Colmo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rubén Sergio Bourgeois Navia</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Solar El Peumo</t>
+          <t>Centro de eventos Les Bourgeois</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Rubén Sergio Bourgeois Navia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>23/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví 110 kV</t>
+          <t>Planta Solar El Peumo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví S.A.</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>23/10/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Aconcagua</t>
+          <t>Subestación Puchuncaví 110 kV</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos</t>
+          <t>Subestación Puchuncaví S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>157</v>
+        <v>8000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
+          <t>Extracción de Áridos Rio Aconcagua</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
+          <t>Sociedad Pétreos</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>670</v>
+        <v>157</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31/05/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Regularización y Recuperación de Suelo Parcela 13</t>
+          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/05/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>?Extracción de Áridos Rio Aconcagua?,</t>
+          <t>Regularización y Recuperación de Suelo Parcela 13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/07/2018</t>
+          <t>15/05/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Oleoducto de Conexión ENEX-SONACOL</t>
+          <t>?Extracción de Áridos Rio Aconcagua?,</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2900</v>
+        <v>157</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>09/07/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"Actualización del Complejo Industrial Coker"</t>
+          <t>Oleoducto de Conexión ENEX-SONACOL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>78000</v>
+        <v>2900</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto Aconcagua</t>
+          <t>"Actualización del Complejo Industrial Coker"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>162000</v>
+        <v>78000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/04/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,40 +1288,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Aconcagua</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>162000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>27/04/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50000</v>
+        <v>37</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>28/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>28/09/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Atacama SpA</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>50000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>17/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/06/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Central Nueva ERA</t>
+          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Atacama SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>680000</v>
+        <v>60</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>23/06/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EIA HOTEL DECAMERON RITOQUE</t>
+          <t>Central Nueva ERA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Constructora Riviera Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>44500</v>
+        <v>680000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/06/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
+          <t>EIA HOTEL DECAMERON RITOQUE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Constructora Riviera Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300000</v>
+        <v>44500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>30/06/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/02/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>16/02/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
+          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>670</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
+          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Recuperación de Terrenos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asfaltos Chilenos S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>390</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
+          <t>Recuperación de Terrenos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>Asfaltos Chilenos S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>126166</v>
+        <v>390</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,40 +2536,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>126166</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,26 +2776,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6.8</v>
+        <v>5500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,40 +2824,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/09/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Proyecto TK-5</t>
+          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/09/2012</t>
+          <t>26/09/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Terminal Proyecto TK-5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>11/09/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
+          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5500</v>
+        <v>60000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>07/12/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Foresta Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6069</v>
+        <v>150</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Inmobiliaria La Foresta Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>75000</v>
+        <v>6069</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/12/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/09/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>17700</v>
+        <v>170</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>29/09/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>264</v>
+        <v>4800</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de barros de limpieza de refinería</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de barros de limpieza de refinería</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>21/07/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5705</v>
+        <v>4050</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,30 +4696,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inversiones San José S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>330000</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Inversiones San José S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6188</v>
+        <v>330000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/02/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>6188</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>05/02/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,12 +5090,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>07/12/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ENERGY PHOENIX LANDFILL S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1163</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
+          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ENERGY PHOENIX LANDFILL S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>17000</v>
+        <v>1163</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>04/09/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>22</v>
+        <v>17000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BASF Chile S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5491</v>
+        <v>22</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
+          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inversiones Bosques del Mauco S.A.</t>
+          <t>BASF Chile S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>35</v>
+        <v>5491</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Inversiones Bosques del Mauco S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4700</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>4700</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3700</v>
+        <v>1750</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,36 +6568,40 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Energía Minera</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Energía Minera S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.7</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,40 +6616,36 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Termoeléctrica Energía Minera</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía Minera S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>1.7</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>06/06/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>80</v>
+        <v>1750</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,16 +6814,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>INVERSIONES MONTECARLO S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
+          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>INVERSIONES MONTECARLO S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10600</v>
+        <v>5600</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,20 +6910,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>10600</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,20 +7006,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1300</v>
+        <v>429</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,30 +7054,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,20 +7102,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1300</v>
+        <v>234</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,20 +7150,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,40 +7188,40 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Quintero</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>110000</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,12 +7236,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
+          <t>Central Termoeléctrica Quintero</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>8500</v>
+        <v>110000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,30 +7294,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>8500</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,30 +7342,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>6600</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7403,17 +7403,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,25 +7443,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>400000</v>
+        <v>6600</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,20 +7486,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,30 +7534,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>400000</v>
+        <v>1</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7582,20 +7582,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>210</v>
+        <v>400000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,15 +7635,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,25 +7683,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,17 +7739,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7835,17 +7835,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7870,20 +7870,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,30 +7918,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,17 +7979,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,20 +8014,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
+          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,15 +8067,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>JAIME VILLAGRAN VILLEGAS</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,20 +8110,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>JAIME VILLAGRAN VILLEGAS</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>06/10/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,25 +8163,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8219,17 +8219,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,25 +8259,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,17 +8315,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,25 +8355,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,30 +8398,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,30 +8446,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,25 +8499,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>15/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos (e-seia)</t>
+          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,17 +8603,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>15/02/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Acopio combustibles sólidos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,30 +8638,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Gasoducto Quintero - Quillota (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ELECTROGAS S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>19340</v>
+        <v>72</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Gasoducto Quintero - Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>ELECTROGAS S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>430</v>
+        <v>19340</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,30 +8782,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3600</v>
+        <v>430</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3517</v>
+        <v>3600</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,15 +9075,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,11 +9219,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,12 +9300,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
+          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
+          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Gonzalo Gazmuri Muñoz</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Terminal de Productos Importados (e-seia)</t>
+          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Carlos Lonza Lazo</t>
+          <t>Gonzalo Gazmuri Muñoz</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>15000</v>
+        <v>446</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,12 +9444,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
+          <t>Terminal de Productos Importados (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Carlos Lonza Lazo</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>262294</v>
+        <v>15000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,12 +9492,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
+          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>11200</v>
+        <v>262294</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,20 +9550,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>11200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9659,17 +9659,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>4500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9838,20 +9838,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>13/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>13/10/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
+          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,11 +9939,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,15 +9987,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,17 +10043,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,30 +10078,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>16</v>
+        <v>1800</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,30 +10174,30 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10222,30 +10222,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,30 +10260,30 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Campo Deportivo Mantagua</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Fundación - Corporación "The Mackay School"</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>22/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
+          <t>Campo Deportivo Mantagua</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Fundación - Corporación "The Mackay School"</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3742</v>
+        <v>121</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>23/05/2003</t>
+          <t>22/07/2003</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,12 +10356,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>10000</v>
+        <v>3742</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>25/03/2003</t>
+          <t>23/05/2003</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
+          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>18/03/2003</t>
+          <t>25/03/2003</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>18/03/2003</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,30 +10558,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Inmobiliaria Hesklin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>24/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
+          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,25 +10611,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1189</v>
+        <v>14</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>24/10/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10654,20 +10654,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10702,20 +10702,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10750,20 +10750,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Terminal Marítimo de Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10798,20 +10798,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
+          <t>Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Basf Planta Concón</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>230</v>
+        <v>1900</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
+          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Basf Planta Concón</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>7080</v>
+        <v>230</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
+          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>400</v>
+        <v>7080</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>14/08/2000</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,30 +10980,30 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>14/08/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,30 +11028,30 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>5050</v>
+        <v>3500</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
+          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pesquera Quintero S.A.</t>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>120</v>
+        <v>5050</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11134,20 +11134,20 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Pesquera Quintero S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11182,20 +11182,20 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>04/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
+          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>26/05/1998</t>
+          <t>04/12/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Loteo Santa Rosa de Colmo</t>
+          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Inmobiliaria ERRVE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>15/05/1998</t>
+          <t>26/05/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Red de Ductos Quintero Concón</t>
+          <t>Loteo Santa Rosa de Colmo</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A...</t>
+          <t>Inmobiliaria ERRVE S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>12800</v>
+        <v>1570</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>22/04/1998</t>
+          <t>15/05/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,12 +11364,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
+          <t>Red de Ductos Quintero Concón</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Sociedad Nacional de Oleoductos S.A...</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1500</v>
+        <v>12800</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>26/12/1997</t>
+          <t>22/04/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,15 +11427,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>21730</v>
+        <v>1500</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>08/10/1997</t>
+          <t>26/12/1997</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,43 +11460,91 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Mantagua Resort</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>21730</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>08/10/1997</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F232" t="n">
+      <c r="F233" t="n">
         <v>850000</v>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr">
+      <c r="I233" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr">
+      <c r="J233" t="inlineStr">
         <is>
           <t>Quintero</t>
         </is>

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Ritoque Solar</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/09/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160052668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hidrógeno Verde Bahía de Quintero</t>
+          <t>Parque Fotovoltaico Ritoque Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159899187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160052668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Hidrógeno Verde Bahía de Quintero</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>670</v>
+        <v>30000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/01/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159899187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>Ahorros Inversiones y Rentas S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/11/2022</t>
+          <t>12/01/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
+          <t>Extensión del área de habilitación de suelo, Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45000</v>
+        <v>670</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157610872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
+          <t>Servicio de Transporte Terrestre de GNL para ENAP Refinerías S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>03/10/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156929349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>25/08/2021</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153046905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Loncura</t>
+          <t>Planta de Producción de Hidrógeno Verde en Quintero</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tedlar Diemos SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8140</v>
+        <v>30000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>25/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152977726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Colmo</t>
+          <t>Parque Fotovoltaico Loncura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Tedlar Diemos SpA.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>8140</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>19/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151463554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Centro de eventos Les Bourgeois</t>
+          <t>Parque Fotovoltaico Colmo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rubén Sergio Bourgeois Navia</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Solar El Peumo</t>
+          <t>Centro de eventos Les Bourgeois</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Rubén Sergio Bourgeois Navia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>23/02/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150822599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví 110 kV</t>
+          <t>Planta Solar El Peumo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Subestación Puchuncaví S.A.</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/09/2020</t>
+          <t>23/10/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148745615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Rio Aconcagua</t>
+          <t>Subestación Puchuncaví 110 kV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos</t>
+          <t>Subestación Puchuncaví S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>157</v>
+        <v>8000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/09/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148350542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
+          <t>Extracción de Áridos Rio Aconcagua</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
+          <t>Sociedad Pétreos</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>670</v>
+        <v>157</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31/05/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145708119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Regularización y Recuperación de Suelo Parcela 13</t>
+          <t>IMPLEMENTACIÓN DE MEDIDAS Y RECUPERACIÓN DE SUELO EN FUNDO LAS PALMAS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/05/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143309610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>?Extracción de Áridos Rio Aconcagua?,</t>
+          <t>Regularización y Recuperación de Suelo Parcela 13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Sociedad Ganadera y Extractora de Áridos Santa Ángela Limitada.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09/07/2018</t>
+          <t>15/05/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143201551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oleoducto de Conexión ENEX-SONACOL</t>
+          <t>?Extracción de Áridos Rio Aconcagua?,</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2900</v>
+        <v>157</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>09/07/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140892529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"Actualización del Complejo Industrial Coker"</t>
+          <t>Oleoducto de Conexión ENEX-SONACOL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>78000</v>
+        <v>2900</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto Aconcagua</t>
+          <t>"Actualización del Complejo Industrial Coker"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>162000</v>
+        <v>78000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/04/2017</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132763099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,40 +1336,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Aconcagua</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Aguas PAcifico SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>162000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>27/04/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132346285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50000</v>
+        <v>37</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>28/09/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>28/09/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131773691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Atacama SpA</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>50000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>17/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/06/2016</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Central Nueva ERA</t>
+          <t>CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE RILES Y OPERACIÓN DE PLANTA PROCESADORA DE JIBIA ATACAMA SPA, QUINTERO.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Atacama SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>680000</v>
+        <v>60</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>23/06/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131511354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EIA HOTEL DECAMERON RITOQUE</t>
+          <t>Central Nueva ERA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Constructora Riviera Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>44500</v>
+        <v>680000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/06/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130990403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
+          <t>EIA HOTEL DECAMERON RITOQUE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Constructora Riviera Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300000</v>
+        <v>44500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>30/06/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130580841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ALTO RITOQUE</t>
+          <t>Aumento de Capacidad Fase 2 del Terminal GNLQ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bellotos Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/02/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130396619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>ALTO RITOQUE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Los Bellotos Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>16/02/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130228573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
+          <t>Proyecto Habilitación y Recuperación de Suelo Parcela Médanos Ex Hacienda Normandie</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Ahorros Inversiones y Rentas S.A. (AIRSA)</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>670</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128949420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
+          <t>Plan de extracción en agua subterránea de hidrocarburos en fase libre</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128866785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>AMPLIACIÓN TERMINAL DE PRODUCTOS IMPORTADOS QUINTERO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128800227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Recuperación de Terrenos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asfaltos Chilenos S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>390</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
+          <t>Recuperación de Terrenos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>Asfaltos Chilenos S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>126166</v>
+        <v>390</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/08/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128623567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,40 +2584,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Terminal Multipropósito Oxiquim, Bahía de Quintero</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>126166</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>05/08/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,26 +2824,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Planta de Conversión de Aceites Residuales a Aditivo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6.8</v>
+        <v>5500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7650896&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,40 +2872,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>26/09/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Proyecto TK-5</t>
+          <t>Modificación de la Descarga de CLR fuera de ZPL en Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/09/2012</t>
+          <t>26/09/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7339885&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
+          <t>Ampliación Terminal Proyecto TK-5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>11/09/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
+          <t>TRANSPORTE DE BARROS ANÓDICOS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oxiquim S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
+          <t>Ampliación Terminal Marítimo Quintero Oxiquim S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Oxiquim S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5500</v>
+        <v>60000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6935448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>"Planta de Conversión de Aceites Residuales a Aditivo para Combustible Óleo - Planta Caracol"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6791091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Generación Eléctrica de Respaldo para Terminal GNL Quintero</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>7000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>07/12/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6355195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Foresta Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6069</v>
+        <v>150</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/12/2010</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Proyecto Inmobiliario La Foresta de Quintero</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Inmobiliaria La Foresta Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>75000</v>
+        <v>6069</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>09/12/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5135486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>19000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>29/09/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Centro de almacenamiento para residuos peligrosos y recuperación de tambores y contenedores IBC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>17700</v>
+        <v>170</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>29/09/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4962729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>264</v>
+        <v>4800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de barros de limpieza de refinería</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de barros de limpieza de refinería</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>21/07/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>5705</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,30 +4744,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Inversiones San José S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>330000</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Puerto Multipropósito San José, en Quintero, V Región</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Inversiones San José S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>6188</v>
+        <v>330000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/02/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4351093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>6188</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>05/02/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>07/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>07/12/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4230367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>PLAN REGULADOR METROPOLITANO DE VALPARAISO (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>16/11/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4191838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ENERGY PHOENIX LANDFILL S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1163</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
+          <t>Plan de Cierre Vertedero Municipal Comuna de Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ENERGY PHOENIX LANDFILL S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>17000</v>
+        <v>1163</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>04/09/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Construcción tercer y cuarto oleoducto Quintero Concón (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>17000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4016507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BASF Chile S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5491</v>
+        <v>22</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
+          <t>Proyecto Aumento de Capacidad de Producción Planta Dispersiones - Fábrica Concón (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inversiones Bosques del Mauco S.A.</t>
+          <t>BASF Chile S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>35</v>
+        <v>5491</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3824020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización del Sistema de Recirculación de Aguas de Proceso (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Inversiones Bosques del Mauco S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3672063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Ampliación del proyecto: Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3625604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Oleoducto de Central Termoeléctrica Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>12/12/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3410313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4700</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>02/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Estanque de Almacenamiento de Productos Limpios T-5024 Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>4700</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>02/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3237488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3700</v>
+        <v>1750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>24/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>SUBESTACIÓN ELÉCTRICA EL BATO (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>3700</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>24/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3212093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,36 +6616,40 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Energía Minera</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Energía Minera S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.7</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>06/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,40 +6664,36 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Termoeléctrica Energía Minera</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Energía Minera S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>1.7</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>06/06/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2938084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>80</v>
+        <v>1750</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,16 +6862,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>INVERSIONES MONTECARLO S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
+          <t>Nuevas Instalaciones Alto Mantagua (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>INVERSIONES MONTECARLO S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10600</v>
+        <v>5600</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2603574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Línea de Transmisión Subterránea de 110 KV entre GNL Quintero y AES Gener (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,20 +6958,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>10600</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,15 +7011,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,20 +7054,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1300</v>
+        <v>429</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,30 +7102,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>234</v>
+        <v>1300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2442694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,20 +7150,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1300</v>
+        <v>234</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Proyecto TT/MM Shell Quintero, Tercera y Cuarta Línea Submarina (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,20 +7198,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,40 +7236,40 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Quintero</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>110000</v>
+        <v>10</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,12 +7284,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
+          <t>Central Termoeléctrica Quintero</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7299,15 +7299,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>8500</v>
+        <v>110000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2308811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Alta Tensión Central Termoeléctrica Quintero - Subestación San Luis (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,30 +7342,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>8500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,30 +7390,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>6600</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>DIA Construccion Etapa II TPI Bunkers (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>400000</v>
+        <v>6600</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,20 +7534,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2048275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7582,30 +7582,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>400000</v>
+        <v>1</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>MODIFICACIÓN DEL MUELLE DEL TERMINAL MARÍTIMO DE GAS NATURAL LICUADO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7630,20 +7630,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>210</v>
+        <v>400000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7883,17 +7883,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,20 +7918,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>ESTERILIZACIÓN Y DISPOSICIÓN DE RESIDUOS ORGÁNICOS SÓLIDOS NACIONALES E INTERNACIONALES (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,30 +7966,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1802598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,17 +8027,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,20 +8062,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SUPPLY MARITIME SERVICES LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>24/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
+          <t>PROYECTO DE DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE RESIDUOS ORGÁNICOS E INORGÁNICOS NACIONALES Y EXTRANJEROS POR MEDIO DE LA ESTERILIZACIÓN CON AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>JAIME VILLAGRAN VILLEGAS</t>
+          <t>SUPPLY MARITIME SERVICES LTDA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>24/10/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1758457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>ACREDITACIÓN PARA LA EJECUCIÓN DEL DESEMBARCO, TRANSPORTE, TRATAMIENTO Y DISPOSICIÓN FINAL DE LA BASURA ORGÁNICA PROVENIENTES DE NAVES DESDE EL EXTRANJERO O DESDE PUERTOS NACIONALES UBICADOS BAJO CUARENTENA INTERNA A PARTIR DE LA ESTERILIZACIÓN POR MEDIO DE AUTOCLAVE (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,20 +8158,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>JAIME VILLAGRAN VILLEGAS</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>06/10/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1684283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,25 +8211,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8267,17 +8267,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,25 +8307,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,17 +8363,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,25 +8403,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,30 +8446,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,30 +8494,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,25 +8547,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CEMENTO POLPAICO S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>15/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Acopio combustibles sólidos (e-seia)</t>
+          <t>Acopio combustibles sólidos Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,17 +8651,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>15/02/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1274443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Acopio combustibles sólidos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,30 +8686,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>CEMENTO POLPAICO S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Gasoducto Quintero - Quillota (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ELECTROGAS S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>19340</v>
+        <v>72</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Gasoducto Quintero - Quillota (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>ELECTROGAS S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>430</v>
+        <v>19340</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1667</v>
+        <v>430</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,30 +8926,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>BASF Chile S.A. - Planta Concón</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
+          <t>Modificación a la Disposición Final de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>BASF Chile S.A. - Planta Concón</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3600</v>
+        <v>430</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>17/11/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>OLEODUCTO QUINTERO - VENTANAS (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3517</v>
+        <v>3600</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>17/11/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,11 +9267,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,12 +9348,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
+          <t>Estanques de Almacenamiento de Crudo T-5101 y T-5107, Terminal Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>GNL QUINTERO S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=915653&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,12 +9396,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
+          <t>Terminal de Gas Natural Licuado (GNL) en Quintero</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Gonzalo Gazmuri Muñoz</t>
+          <t>GNL QUINTERO S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1065093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Terminal de Productos Importados (e-seia)</t>
+          <t>Ampliación Capacidad Terminal Puerto Ventanas (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Carlos Lonza Lazo</t>
+          <t>Gonzalo Gazmuri Muñoz</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>15000</v>
+        <v>446</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,12 +9492,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
+          <t>Terminal de Productos Importados (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Carlos Lonza Lazo</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>262294</v>
+        <v>15000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
+          <t>Descarga Almacenamiento y Regasificación de Gas Natural Licuado (GNL)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>11200</v>
+        <v>262294</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Proyecto Cuarto Estanque de LPG (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9598,20 +9598,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>11200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=681354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9707,17 +9707,17 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRANSCARGO Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico por caminos que se indican entre la V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>TRANSCARGO Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>4500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9886,20 +9886,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>13/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE TRATAMIENTO DE RILES DEL TERMINAL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,15 +9939,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>25</v>
+        <v>2000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>13/10/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
+          <t>Dragado Sector Caleta El Manzano, V Región (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>Modificacion al plan regulador intercomunal de Valparaíso en su área metropolitana y satélite borde costero quintero Puchuncaví. (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>23/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=467278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
+          <t>TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,17 +10091,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/08/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=430677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>PROYECTO TT/MM SHELL QUINTERO (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,30 +10126,30 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>16</v>
+        <v>1800</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10222,30 +10222,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLANTA DE ALMACENAMIENTO ZONA CENTRO NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,30 +10270,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,30 +10308,30 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Campo Deportivo Mantagua</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Fundación - Corporación "The Mackay School"</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>22/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
+          <t>Campo Deportivo Mantagua</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Fundación - Corporación "The Mackay School"</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>3742</v>
+        <v>121</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>23/05/2003</t>
+          <t>22/07/2003</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,12 +10404,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas y Emisario Submarino de Quintero</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>10000</v>
+        <v>3742</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>25/03/2003</t>
+          <t>23/05/2003</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
+          <t>Proyecto de ampliación terminal maritimo quintero Oxiquim S.A V region. (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,25 +10467,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>18/03/2003</t>
+          <t>25/03/2003</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=61099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Oleoducto RPC - Planta Lubricantes COPEC Quintero (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>18/03/2003</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,30 +10606,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Inmobiliaria Hesklin Ltda.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>24/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
+          <t>Tratamiento de RILes de Planta Faenadora de Ganado Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,25 +10659,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Inmobiliaria Hesklin Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1189</v>
+        <v>14</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>24/10/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Aumento de Capacidad de Almacenamiento de Diesel en Terminal Quintero</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10702,20 +10702,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10750,20 +10750,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>25/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Nueva Línea de Combustible Terminal Marítimo Bahía de Quintero</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10798,20 +10798,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>25/02/2002</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Terminal Marítimo de Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10846,20 +10846,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>28/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
+          <t>Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Basf Planta Concón</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>230</v>
+        <v>1900</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>28/09/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
+          <t>Transporte Almacenamiento y Dosificación a Granel de Diciclopentadieno</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Basf Planta Concón</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>7080</v>
+        <v>230</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
+          <t>Aumento de la Capacidad de Almacenamiento de Petróleo Crudo en Terminal Marítimo de Quintero</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>400</v>
+        <v>7080</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>14/08/2000</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,30 +11028,30 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Fondeadero Marítimo Para Barcazas Bahía de Quintero</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>14/08/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,30 +11076,30 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>5050</v>
+        <v>3500</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
+          <t>Ampliación Proyecto Inmobiliario Mantagua Resort</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Pesquera Quintero S.A.</t>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>120</v>
+        <v>5050</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Proyecto Habilitación Sistema de Tratamiento de Aguas Industriales</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11182,20 +11182,20 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Pesquera Quintero S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11230,20 +11230,20 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>04/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
+          <t>Traslado Operaciones Las Salinas Fase I Planta de Lubricantes Quintero</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>26/05/1998</t>
+          <t>04/12/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Loteo Santa Rosa de Colmo</t>
+          <t>Proyecto de Instalación Nuevos Estanques de Almacenamiento de Fenol</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Inmobiliaria ERRVE S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1570</v>
+        <v>800</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>15/05/1998</t>
+          <t>26/05/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,12 +11364,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Red de Ductos Quintero Concón</t>
+          <t>Loteo Santa Rosa de Colmo</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A...</t>
+          <t>Inmobiliaria ERRVE S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>12800</v>
+        <v>1570</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>22/04/1998</t>
+          <t>15/05/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,12 +11412,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
+          <t>Red de Ductos Quintero Concón</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11427,15 +11427,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Sociedad Nacional de Oleoductos S.A...</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1500</v>
+        <v>12800</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>26/12/1997</t>
+          <t>22/04/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Mantagua Resort</t>
+          <t>Conversión a Gas Natural de los Procesos de Fundición Refineria de Ventanas de ENAMI</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,15 +11475,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club Mantagua S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>21730</v>
+        <v>1500</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>08/10/1997</t>
+          <t>26/12/1997</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,43 +11508,91 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>Proyecto Inmobiliario Mantagua Resort</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Club Mantagua S.A.</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>21730</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>08/10/1997</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=961&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F233" t="n">
+      <c r="F234" t="n">
         <v>850000</v>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
+      <c r="I234" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>Quintero</t>
         </is>

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F146" t="n">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,16 +8926,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8944,12 +8944,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,16 +8926,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8944,12 +8944,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">

--- a/data/Quintero.xlsx
+++ b/data/Quintero.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Styropek Chile SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1667</v>
+        <v>72</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CAPACIDAD DE PRODUCCIÓN DE PLANTA STYROPOR (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,16 +8926,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Styropek Chile SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>72</v>
+        <v>1667</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8944,12 +8944,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
